--- a/statistical analysis/session files/Session 2/Interpretation of Std Err.xlsx
+++ b/statistical analysis/session files/Session 2/Interpretation of Std Err.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ISB\SMMD 2018\SMMD 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandipto.sanyal\OneDrive - Accenture\Documents\Study materials\AMPBA\Term1\statistical analysis\session files\Session 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B044A5B-3E3D-450E-8194-5CE76E725FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DE9A33-1447-4BD7-A86A-2D3A7E62E3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2173,22 +2174,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="C10" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="20.54296875" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
     <col min="21" max="21" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>$S$3-4*$S$5</f>
         <v>-250</v>
@@ -2206,7 +2207,7 @@
         <v>1.3383022576488537E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A34" si="1">A2+$E$8*$S$5</f>
         <v>-240</v>
@@ -2222,7 +2223,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="1"/>
         <v>-230</v>
@@ -2238,7 +2239,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>-220</v>
@@ -2255,7 +2256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>-210</v>
@@ -2271,7 +2272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>-200</v>
@@ -2285,7 +2286,7 @@
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:21" ht="25.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>-190</v>
@@ -2308,7 +2309,7 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>-180</v>
@@ -2325,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>-170</v>
@@ -2357,7 +2358,7 @@
       <c r="T10" s="8"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>-160</v>
@@ -2367,7 +2368,7 @@
         <v>3.2668190561999184E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>-150</v>
@@ -2377,7 +2378,7 @@
         <v>4.4318484119380074E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>-140</v>
@@ -2387,7 +2388,7 @@
         <v>5.952532419775854E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>-130</v>
@@ -2397,7 +2398,7 @@
         <v>7.9154515829799686E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>-120</v>
@@ -2407,7 +2408,7 @@
         <v>1.0420934814422592E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>-110</v>
@@ -2418,7 +2419,7 @@
       </c>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>-100</v>
@@ -2428,7 +2429,7 @@
         <v>1.7528300493568541E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>-90</v>
@@ -2438,7 +2439,7 @@
         <v>2.2394530294842898E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>-80</v>
@@ -2448,7 +2449,7 @@
         <v>2.8327037741601187E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>-70</v>
@@ -2458,7 +2459,7 @@
         <v>3.5474592846231425E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>-60</v>
@@ -2468,7 +2469,7 @@
         <v>4.3983595980427194E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>-50</v>
@@ -2478,7 +2479,7 @@
         <v>5.3990966513188055E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>-40</v>
@@ -2489,7 +2490,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>-30</v>
@@ -2500,7 +2501,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>-20</v>
@@ -2511,7 +2512,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>-10</v>
@@ -2522,7 +2523,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2534,7 +2535,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2545,7 +2546,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -2566,7 +2567,7 @@
         <v>1.9418605498321294E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2576,7 +2577,7 @@
         <v>2.1785217703255053E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2586,7 +2587,7 @@
         <v>2.4197072451914337E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2596,7 +2597,7 @@
         <v>2.6608524989875483E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2606,7 +2607,7 @@
         <v>2.8969155276148272E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" ref="A35:A66" si="3">A34+$E$8*$S$5</f>
         <v>80</v>
@@ -2616,7 +2617,7 @@
         <v>3.1225393336676128E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -2626,7 +2627,7 @@
         <v>3.3322460289179961E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -2636,7 +2637,7 @@
         <v>3.5206532676429949E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -2646,7 +2647,7 @@
         <v>3.6827014030332331E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -2656,7 +2657,7 @@
         <v>3.8138781546052411E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -2666,7 +2667,7 @@
         <v>3.9104269397545587E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>140</v>
@@ -2676,7 +2677,7 @@
         <v>3.969525474770118E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="3"/>
         <v>150</v>
@@ -2686,7 +2687,7 @@
         <v>3.9894228040143268E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>160</v>
@@ -2696,7 +2697,7 @@
         <v>3.969525474770118E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -2706,7 +2707,7 @@
         <v>3.9104269397545587E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -2716,7 +2717,7 @@
         <v>3.8138781546052411E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -2726,7 +2727,7 @@
         <v>3.6827014030332331E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -2736,7 +2737,7 @@
         <v>3.5206532676429949E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -2746,7 +2747,7 @@
         <v>3.3322460289179961E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -2756,7 +2757,7 @@
         <v>3.1225393336676128E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -2766,7 +2767,7 @@
         <v>2.8969155276148272E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -2776,7 +2777,7 @@
         <v>2.6608524989875483E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -2786,7 +2787,7 @@
         <v>2.4197072451914337E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="3"/>
         <v>260</v>
@@ -2796,7 +2797,7 @@
         <v>2.1785217703255053E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="3"/>
         <v>270</v>
@@ -2806,7 +2807,7 @@
         <v>1.9418605498321294E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -2816,7 +2817,7 @@
         <v>1.7136859204780733E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="3"/>
         <v>290</v>
@@ -2826,7 +2827,7 @@
         <v>1.4972746563574487E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>300</v>
@@ -2836,7 +2837,7 @@
         <v>1.2951759566589174E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="3"/>
         <v>310</v>
@@ -2846,7 +2847,7 @@
         <v>1.1092083467945555E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="3"/>
         <v>320</v>
@@ -2856,7 +2857,7 @@
         <v>9.4049077376886939E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="3"/>
         <v>330</v>
@@ -2866,7 +2867,7 @@
         <v>7.8950158300894143E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="3"/>
         <v>340</v>
@@ -2876,7 +2877,7 @@
         <v>6.56158147746766E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="3"/>
         <v>350</v>
@@ -2886,7 +2887,7 @@
         <v>5.3990966513188055E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -2896,7 +2897,7 @@
         <v>4.3983595980427194E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -2906,7 +2907,7 @@
         <v>3.5474592846231425E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="3"/>
         <v>380</v>
@@ -2916,17 +2917,17 @@
         <v>2.8327037741601187E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B97" si="4">NORMDIST(A66,$S$3,$S$5,0)</f>
+        <f t="shared" ref="B66:B82" si="4">NORMDIST(A66,$S$3,$S$5,0)</f>
         <v>2.2394530294842898E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" ref="A67:A82" si="5">A66+$E$8*$S$5</f>
         <v>400</v>
@@ -2936,7 +2937,7 @@
         <v>1.7528300493568541E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="5"/>
         <v>410</v>
@@ -2946,7 +2947,7 @@
         <v>1.3582969233685613E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="5"/>
         <v>420</v>
@@ -2956,7 +2957,7 @@
         <v>1.0420934814422592E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="5"/>
         <v>430</v>
@@ -2966,7 +2967,7 @@
         <v>7.9154515829799686E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="5"/>
         <v>440</v>
@@ -2976,7 +2977,7 @@
         <v>5.952532419775854E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="5"/>
         <v>450</v>
@@ -2986,7 +2987,7 @@
         <v>4.4318484119380074E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="5"/>
         <v>460</v>
@@ -2996,7 +2997,7 @@
         <v>3.2668190561999184E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="5"/>
         <v>470</v>
@@ -3006,7 +3007,7 @@
         <v>2.3840882014648403E-5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="5"/>
         <v>480</v>
@@ -3016,7 +3017,7 @@
         <v>1.7225689390536812E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="5"/>
         <v>490</v>
@@ -3026,7 +3027,7 @@
         <v>1.2322191684730199E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="5"/>
         <v>500</v>
@@ -3036,7 +3037,7 @@
         <v>8.7268269504576017E-6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="5"/>
         <v>510</v>
@@ -3046,7 +3047,7 @@
         <v>6.1190193011377197E-6</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="5"/>
         <v>520</v>
@@ -3056,7 +3057,7 @@
         <v>4.2478027055075144E-6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="5"/>
         <v>530</v>
@@ -3066,7 +3067,7 @@
         <v>2.9194692579146028E-6</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="5"/>
         <v>540</v>
@@ -3076,7 +3077,7 @@
         <v>1.9865547139277269E-6</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="5"/>
         <v>550</v>
@@ -3099,6 +3100,22 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33050F1E-5B90-41CF-95C3-E7DB94A4D3B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>